--- a/数据整理/stocks/A股/上证主板/600771-广誉远.xlsx
+++ b/数据整理/stocks/A股/上证主板/600771-广誉远.xlsx
@@ -3,49 +3,393 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" windowHeight="16920" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="144525" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="24">
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <name val="Calibri"/>
-      <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <sz val="11"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
       <b val="1"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF3F3F76"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <color theme="1"/>
+      <sz val="12"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <u val="single"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
       <b val="1"/>
+      <color theme="3"/>
+      <sz val="13"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color theme="0"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="18"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <i val="1"/>
+      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="15"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF9C0006"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FF3F3F3F"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FFFFFFFF"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF9C6500"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FFFF0000"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF006100"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <u val="single"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -69,26 +413,319 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin"/>
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="3" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="8" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="6" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="7" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="49">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
+    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
+    <cellStyle name="输入" xfId="4" builtinId="20"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
+    <cellStyle name="货币" xfId="7" builtinId="4"/>
+    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
+    <cellStyle name="百分比" xfId="9" builtinId="5"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
+    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
+    <cellStyle name="计算" xfId="15" builtinId="22"/>
+    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
+    <cellStyle name="适中" xfId="17" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
+    <cellStyle name="好" xfId="19" builtinId="26"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="差" xfId="22" builtinId="27"/>
+    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
+    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
+    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
+    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
+    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
+    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
+    <cellStyle name="标题" xfId="33" builtinId="15"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
+    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="注释" xfId="37" builtinId="10"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
+    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
+    <cellStyle name="超链接" xfId="41" builtinId="8"/>
+    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
+    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
+    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -441,7 +1078,6 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
@@ -453,51 +1089,51 @@
   </sheetPr>
   <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="16.8"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>基金代码</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>基金名称</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>基金金额</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="E1" s="2" t="inlineStr">
         <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
@@ -535,7 +1171,7 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
+      <c r="A3" s="2" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
@@ -573,7 +1209,7 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="n">
+      <c r="A4" s="2" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="inlineStr">
@@ -611,7 +1247,7 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="n">
+      <c r="A5" s="2" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="inlineStr">
@@ -649,7 +1285,7 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="n">
+      <c r="A6" s="2" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="inlineStr">
@@ -687,7 +1323,7 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="n">
+      <c r="A7" s="2" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="inlineStr">
@@ -725,7 +1361,7 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="n">
+      <c r="A8" s="2" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="inlineStr">
@@ -763,7 +1399,7 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="1" t="n">
+      <c r="A9" s="2" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="inlineStr">
@@ -801,7 +1437,7 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="n">
+      <c r="A10" s="2" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="inlineStr">
@@ -839,7 +1475,7 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="1" t="n">
+      <c r="A11" s="2" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="inlineStr">
@@ -877,7 +1513,7 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="n">
+      <c r="A12" s="2" t="n">
         <v>10</v>
       </c>
       <c r="B12" t="inlineStr">
@@ -915,7 +1551,7 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="1" t="n">
+      <c r="A13" s="2" t="n">
         <v>11</v>
       </c>
       <c r="B13" t="inlineStr">
@@ -953,7 +1589,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -965,6 +1601,141 @@
   </sheetPr>
   <dimension ref="A1:H3"/>
   <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="2" outlineLevelCol="0"/>
+  <cols>
+    <col width="35.25" customWidth="1" min="3" max="3"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>501011</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>汇添富中证中药指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>7.54</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.14</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2209</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>501012</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>汇添富中证中药指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.14</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0513</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D3"/>
+  <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
@@ -972,116 +1743,52 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
+      <c r="B1" s="3" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="inlineStr">
+        <is>
+          <t>持有市值</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="3" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>501011</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>汇添富中证中药指数（LOF）A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>7.54</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>94.14</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>2.93</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.2209</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>9</v>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.27</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="n">
+      <c r="A3" s="3" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>501012</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>汇添富中证中药指数（LOF）C</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>1.75</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>94.14</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>2.93</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0513</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>9</v>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>12</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.37</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/上证主板/600771-广誉远.xlsx
+++ b/数据整理/stocks/A股/上证主板/600771-广誉远.xlsx
@@ -8,7 +8,8 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="144525" fullCalcOnLoad="1"/>
@@ -1734,7 +1735,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1745,17 +1746,37 @@
     <row r="1">
       <c r="B1" s="3" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="3" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="3" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="3" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="3" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1765,14 +1786,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>2</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.27</v>
+          <t>002137</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>诺安利鑫灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>49.51</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>87.76</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.7130</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -1781,13 +1824,233 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>501011</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>汇添富中证中药指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>11.76</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.64</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.4916</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>501012</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>汇添富中证中药指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.64</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1430</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>519183</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>万家双引擎灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.88</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0978</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>005112</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>银华中证全指医药卫生指数增强</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>91.15</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.87</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0813</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="3" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>5</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2.53</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
           <t>2021-Q2</t>
         </is>
       </c>
-      <c r="C3" t="n">
+      <c r="C4" t="n">
         <v>12</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D4" t="n">
         <v>1.37</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600771-广誉远.xlsx
+++ b/数据整理/stocks/A股/上证主板/600771-广誉远.xlsx
@@ -9,7 +9,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="144525" fullCalcOnLoad="1"/>
@@ -1981,7 +1982,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1992,17 +1993,37 @@
     <row r="1">
       <c r="B1" s="3" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="3" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="3" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="3" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="3" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2012,14 +2033,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>5</v>
-      </c>
-      <c r="D2" t="n">
-        <v>2.53</v>
+          <t>501011</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>汇添富中证中药指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>24.13</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.57</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.8518</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -2028,14 +2071,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>2</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.27</v>
+          <t>501012</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>汇添富中证中药指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>8.91</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.57</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3145</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -2044,13 +2109,135 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>005112</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>银华中证全指医药卫生指数增强</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>86.59</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.59</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0794</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="3" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>5</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2.53</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>2021-Q2</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="C5" t="n">
         <v>12</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D5" t="n">
         <v>1.37</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600771-广誉远.xlsx
+++ b/数据整理/stocks/A股/上证主板/600771-广誉远.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="144525" fullCalcOnLoad="1"/>
@@ -2152,7 +2153,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2163,17 +2164,37 @@
     <row r="1">
       <c r="B1" s="3" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="3" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="3" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="3" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="3" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2183,14 +2204,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>3</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1.25</v>
+          <t>501011</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>汇添富中证中药指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>21.05</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.76</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.7536</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -2199,14 +2242,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>5</v>
-      </c>
-      <c r="D3" t="n">
-        <v>2.53</v>
+          <t>501012</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>汇添富中证中药指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>7.89</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.76</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2825</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -2215,14 +2280,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>2</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.27</v>
+          <t>005112</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>银华中证全指医药卫生指数增强</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>90.25</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.22</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0804</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -2231,13 +2318,189 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>015052</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>东方红医疗升级股票A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>64.63</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0306</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>015053</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>东方红医疗升级股票C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>64.63</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0035</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="3" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>5</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.15</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>3</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>5</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2.53</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>2</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2021-Q2</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>12</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>1.37</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600771-广誉远.xlsx
+++ b/数据整理/stocks/A股/上证主板/600771-广誉远.xlsx
@@ -7,11 +7,12 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="144525" fullCalcOnLoad="1"/>
@@ -1090,7 +1091,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1121,14 +1122,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D2" t="n">
-        <v>1.15</v>
+        <v>0.96</v>
       </c>
     </row>
     <row r="3">
@@ -1137,14 +1138,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D3" t="n">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
     </row>
     <row r="4">
@@ -1153,14 +1154,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
-        <v>2.53</v>
+        <v>1.25</v>
       </c>
     </row>
     <row r="5">
@@ -1169,14 +1170,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D5" t="n">
-        <v>0.27</v>
+        <v>2.53</v>
       </c>
     </row>
     <row r="6">
@@ -1185,13 +1186,29 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>2</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2021-Q2</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>12</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>1.37</v>
       </c>
     </row>
@@ -1201,6 +1218,328 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="3" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="3" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="3" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>501011</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>汇添富中证中药指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>11.36</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.73</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3612</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>501012</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>汇添富中证中药指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>6.42</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.73</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2042</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>159647</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>鹏华中证中药ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>6.16</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.79</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1928</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>562390</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>银华中证中药ETF</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>98.09</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0772</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>561510</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证中药ETF</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>95.98</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0650</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>005112</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>银华中证全指医药卫生指数增强</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>90.85</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0551</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="3" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010487</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中银顺盈回报一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>25.62</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0048</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1446,7 +1785,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1616,7 +1955,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1862,7 +2201,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1997,7 +2336,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/上证主板/600771-广誉远.xlsx
+++ b/数据整理/stocks/A股/上证主板/600771-广誉远.xlsx
@@ -7,12 +7,13 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="144525" fullCalcOnLoad="1"/>
@@ -1091,7 +1092,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1122,14 +1123,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D2" t="n">
-        <v>0.96</v>
+        <v>0.83</v>
       </c>
     </row>
     <row r="3">
@@ -1138,14 +1139,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D3" t="n">
-        <v>1.15</v>
+        <v>0.96</v>
       </c>
     </row>
     <row r="4">
@@ -1154,14 +1155,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D4" t="n">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
     </row>
     <row r="5">
@@ -1170,14 +1171,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D5" t="n">
-        <v>2.53</v>
+        <v>1.25</v>
       </c>
     </row>
     <row r="6">
@@ -1186,14 +1187,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D6" t="n">
-        <v>0.27</v>
+        <v>2.53</v>
       </c>
     </row>
     <row r="7">
@@ -1202,13 +1203,29 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>2</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="3" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2021-Q2</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>12</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>1.37</v>
       </c>
     </row>
@@ -1218,6 +1235,252 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="3" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="3" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="3" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>560080</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>汇添富中证中药 ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>18.27</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.54</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.5262</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>159647</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>鹏华中证中药ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>6.29</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>97.07</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1767</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>005112</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>银华中证全指医药卫生指数增强</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>90.64</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0717</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>561510</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证中药ETF</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>96.27</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0370</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>562390</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>银华中证中药ETF</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>97.84</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0223</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1539,7 +1802,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1785,7 +2048,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1955,7 +2218,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2201,7 +2464,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2336,7 +2599,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
